--- a/results-partial/HW_C013_120.xlsx
+++ b/results-partial/HW_C013_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.7608239223043</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.27780214971268</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.04704390131533</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.33595948309285</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30.04704390131533</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.97346444998538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30.43167762435635</v>
-      </c>
-      <c r="I2" t="n">
-        <v>30.19546385022814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.76415565283329</v>
+        <v>27.7608239223043</v>
       </c>
       <c r="C3" t="n">
-        <v>30.30006832124712</v>
+        <v>30.27780214971268</v>
       </c>
       <c r="D3" t="n">
-        <v>30.08165739821452</v>
+        <v>30.04704390131533</v>
       </c>
       <c r="E3" t="n">
-        <v>30.34998011189593</v>
+        <v>30.33595948309285</v>
       </c>
       <c r="F3" t="n">
-        <v>30.08165739821452</v>
+        <v>30.04704390131533</v>
       </c>
       <c r="G3" t="n">
-        <v>27.98520926070378</v>
+        <v>28.75033348637675</v>
       </c>
       <c r="H3" t="n">
-        <v>30.43427447041097</v>
+        <v>30.43167762435635</v>
       </c>
       <c r="I3" t="n">
-        <v>30.20058837635157</v>
+        <v>30.19546385022814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.80085108117647</v>
+        <v>27.76415565283329</v>
       </c>
       <c r="C4" t="n">
-        <v>30.28417850151626</v>
+        <v>30.30006832124712</v>
       </c>
       <c r="D4" t="n">
-        <v>30.06599479448474</v>
+        <v>30.08165739821452</v>
       </c>
       <c r="E4" t="n">
-        <v>30.33389498855288</v>
+        <v>30.34998011189593</v>
       </c>
       <c r="F4" t="n">
-        <v>30.06591819817204</v>
+        <v>30.08165739821452</v>
       </c>
       <c r="G4" t="n">
-        <v>28.01961757687365</v>
+        <v>28.7458923675522</v>
       </c>
       <c r="H4" t="n">
-        <v>30.38770512775293</v>
+        <v>30.43427447041097</v>
       </c>
       <c r="I4" t="n">
-        <v>30.17224863758651</v>
+        <v>30.20058837635157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.76251901515253</v>
+        <v>27.80085108117647</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2403073758023</v>
+        <v>30.28417850151626</v>
       </c>
       <c r="D5" t="n">
-        <v>30.01943326875471</v>
+        <v>30.06599479448474</v>
       </c>
       <c r="E5" t="n">
-        <v>30.30902664889604</v>
+        <v>30.33389498855288</v>
       </c>
       <c r="F5" t="n">
-        <v>30.0194402571328</v>
+        <v>30.06591819817204</v>
       </c>
       <c r="G5" t="n">
-        <v>27.98748609665243</v>
+        <v>28.75326330975801</v>
       </c>
       <c r="H5" t="n">
-        <v>30.4021683580043</v>
+        <v>30.38770512775293</v>
       </c>
       <c r="I5" t="n">
-        <v>30.17749892636014</v>
+        <v>30.17224863758651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.76072746189019</v>
+        <v>27.76251901515253</v>
       </c>
       <c r="C6" t="n">
-        <v>30.28680008727598</v>
+        <v>30.2403073758023</v>
       </c>
       <c r="D6" t="n">
-        <v>30.06825399982196</v>
+        <v>30.01943326875471</v>
       </c>
       <c r="E6" t="n">
-        <v>30.34768329711238</v>
+        <v>30.30902664889604</v>
       </c>
       <c r="F6" t="n">
-        <v>30.06825399982196</v>
+        <v>30.0194402571328</v>
       </c>
       <c r="G6" t="n">
-        <v>27.97827452637639</v>
+        <v>28.75184765311546</v>
       </c>
       <c r="H6" t="n">
-        <v>30.42522454420415</v>
+        <v>30.4021683580043</v>
       </c>
       <c r="I6" t="n">
-        <v>30.19314864708934</v>
+        <v>30.17749892636014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.77727973682701</v>
+        <v>27.76072746189019</v>
       </c>
       <c r="C7" t="n">
-        <v>30.24799758623505</v>
+        <v>30.28680008727598</v>
       </c>
       <c r="D7" t="n">
-        <v>30.05559095858029</v>
+        <v>30.06825399982196</v>
       </c>
       <c r="E7" t="n">
-        <v>30.32462754863655</v>
+        <v>30.34768329711238</v>
       </c>
       <c r="F7" t="n">
-        <v>30.05559095858029</v>
+        <v>30.06825399982196</v>
       </c>
       <c r="G7" t="n">
-        <v>27.99535371339875</v>
+        <v>28.74386822127898</v>
       </c>
       <c r="H7" t="n">
-        <v>30.41906045070446</v>
+        <v>30.42522454420415</v>
       </c>
       <c r="I7" t="n">
-        <v>30.18296010851255</v>
+        <v>30.19314864708934</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.78446173692694</v>
+        <v>27.77727973682701</v>
       </c>
       <c r="C8" t="n">
-        <v>30.27193831161559</v>
+        <v>30.24799758623505</v>
       </c>
       <c r="D8" t="n">
-        <v>30.05450742837552</v>
+        <v>30.05559095858029</v>
       </c>
       <c r="E8" t="n">
-        <v>30.34536250778307</v>
+        <v>30.32462754863655</v>
       </c>
       <c r="F8" t="n">
-        <v>30.05450742837552</v>
+        <v>30.05559095858029</v>
       </c>
       <c r="G8" t="n">
-        <v>28.00698716085698</v>
+        <v>28.74382393835891</v>
       </c>
       <c r="H8" t="n">
-        <v>30.41462334204979</v>
+        <v>30.41906045070446</v>
       </c>
       <c r="I8" t="n">
-        <v>30.17138189573899</v>
+        <v>30.18296010851255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.76050118429297</v>
+        <v>27.78446173692694</v>
       </c>
       <c r="C9" t="n">
-        <v>30.2672042884944</v>
+        <v>30.27193831161559</v>
       </c>
       <c r="D9" t="n">
-        <v>30.04302160238908</v>
+        <v>30.05450742837552</v>
       </c>
       <c r="E9" t="n">
-        <v>30.30663122559003</v>
+        <v>30.34536250778307</v>
       </c>
       <c r="F9" t="n">
-        <v>30.04298603122029</v>
+        <v>30.05450742837552</v>
       </c>
       <c r="G9" t="n">
-        <v>27.98816979067789</v>
+        <v>28.76560073442887</v>
       </c>
       <c r="H9" t="n">
-        <v>30.41926158129405</v>
+        <v>30.41462334204979</v>
       </c>
       <c r="I9" t="n">
-        <v>30.20743422229705</v>
+        <v>30.17138189573899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.76686598914338</v>
+        <v>27.76050118429297</v>
       </c>
       <c r="C10" t="n">
-        <v>30.26021748304546</v>
+        <v>30.2672042884944</v>
       </c>
       <c r="D10" t="n">
-        <v>30.03070243232531</v>
+        <v>30.04302160238908</v>
       </c>
       <c r="E10" t="n">
-        <v>30.32414775834429</v>
+        <v>30.30663122559003</v>
       </c>
       <c r="F10" t="n">
-        <v>30.03070243232531</v>
+        <v>30.04298603122029</v>
       </c>
       <c r="G10" t="n">
-        <v>27.98746434824874</v>
+        <v>28.76565832990273</v>
       </c>
       <c r="H10" t="n">
-        <v>30.41849637698485</v>
+        <v>30.41926158129405</v>
       </c>
       <c r="I10" t="n">
-        <v>30.19539994560932</v>
+        <v>30.20743422229705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.76686598914338</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.26021748304546</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.03070243232531</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.32414775834429</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.03070243232531</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.75735300184968</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.41849637698485</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.19539994560932</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.77808232087939</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>30.25749331268658</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>30.03408374195217</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>30.34121685479861</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>30.03408374195217</v>
       </c>
-      <c r="G11" t="n">
-        <v>28.00584676705547</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.74308194101039</v>
+      </c>
+      <c r="H12" t="n">
         <v>30.43074601113019</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>30.19480119818936</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.77162681014265</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.26940074176314</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.05002895262136</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.33185304247026</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30.05001843471103</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.99278736908294</v>
-      </c>
-      <c r="H12" t="n">
-        <v>30.4183237886892</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30.1890925807963</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.49777393162049</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.278402142478718</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.560226232327615</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.278391624568382</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2211605589402978</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.646696978546558</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.417465770653653</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8729897070536828</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9360876600587792</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9329276205221606</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9361593324079378</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9329276205221606</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9085077254782441</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9350600984415345</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9326826323843173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8725988060394757</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9370730096077489</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9338407088831934</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9365651967662014</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9338407088831934</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9070386679059043</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9355520827527389</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9341267661168065</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8736095418938625</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9379957872821986</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.934448143023105</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.937748002722401</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9344476983323761</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9091823922673516</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9363171920779455</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9331753288759748</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8734591732617784</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9359410719787908</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9335841796682268</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9363566456515295</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9335840928798321</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9070622583642624</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9362945254259518</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9336138370223822</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8734334727040907</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9360538082531434</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9333391126181173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9362893300664171</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9333391126181173</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9079918909537757</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9355235841137652</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.933300108324963</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8730340762079609</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9374931941741582</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9344340258283894</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9376363772011985</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9344340258283894</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9104519869792937</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9346973699334475</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9330936576508345</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.874261742364754</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9369893919348402</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9345299071069042</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9368839649084381</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9345299071069042</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9083280028490861</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.935020558211065</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9332694310874805</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8731316652947181</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9371821188751569</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9345754729270134</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9361265921746151</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9345751919714165</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9105788441711249</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9354557057492806</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9334573253465885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8729903072406305</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9357614975205131</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9335178363604947</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.937038482860964</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9335178363604947</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9103971674878436</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9355699427785237</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.933918508764661</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8734355477856887</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9381521015117206</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9345839137040433</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9364592872628382</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9345839137040433</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.90738752082164</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9352802521516849</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9337500764317959</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.71096378066319</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27.49467036514596</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.40821305899224</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27.69073841083422</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.40821305899224</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.56950904558176</v>
-      </c>
-      <c r="H2" t="n">
-        <v>27.12554861644868</v>
-      </c>
-      <c r="I2" t="n">
-        <v>26.2285285260489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.70666034781575</v>
+        <v>19.71096378066319</v>
       </c>
       <c r="C3" t="n">
-        <v>27.47781693959386</v>
+        <v>27.49467036514596</v>
       </c>
       <c r="D3" t="n">
-        <v>27.34916581228809</v>
+        <v>27.40821305899224</v>
       </c>
       <c r="E3" t="n">
-        <v>27.66606155137543</v>
+        <v>27.69073841083422</v>
       </c>
       <c r="F3" t="n">
-        <v>27.34916581228809</v>
+        <v>27.40821305899224</v>
       </c>
       <c r="G3" t="n">
-        <v>20.56831093100901</v>
+        <v>24.33778166402721</v>
       </c>
       <c r="H3" t="n">
-        <v>27.12441247315927</v>
+        <v>27.12554861644868</v>
       </c>
       <c r="I3" t="n">
-        <v>26.21349631121881</v>
+        <v>26.2285285260489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.69473720740051</v>
+        <v>19.70666034781575</v>
       </c>
       <c r="C4" t="n">
-        <v>27.457272767372</v>
+        <v>27.47781693959386</v>
       </c>
       <c r="D4" t="n">
-        <v>27.37102322268074</v>
+        <v>27.34916581228809</v>
       </c>
       <c r="E4" t="n">
-        <v>27.65278185902998</v>
+        <v>27.66606155137543</v>
       </c>
       <c r="F4" t="n">
-        <v>27.37102322268074</v>
+        <v>27.34916581228809</v>
       </c>
       <c r="G4" t="n">
-        <v>20.55180117503382</v>
+        <v>24.34627298805655</v>
       </c>
       <c r="H4" t="n">
-        <v>27.10100171302534</v>
+        <v>27.12441247315927</v>
       </c>
       <c r="I4" t="n">
-        <v>26.18225333447186</v>
+        <v>26.21349631121881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.70634436507044</v>
+        <v>19.69473720740051</v>
       </c>
       <c r="C5" t="n">
-        <v>27.49295921426951</v>
+        <v>27.457272767372</v>
       </c>
       <c r="D5" t="n">
-        <v>27.40561185995914</v>
+        <v>27.37102322268074</v>
       </c>
       <c r="E5" t="n">
-        <v>27.67449516997501</v>
+        <v>27.65278185902998</v>
       </c>
       <c r="F5" t="n">
-        <v>27.40563040281192</v>
+        <v>27.37102322268074</v>
       </c>
       <c r="G5" t="n">
-        <v>20.56174645282566</v>
+        <v>24.29055779823389</v>
       </c>
       <c r="H5" t="n">
-        <v>27.14092747501897</v>
+        <v>27.10100171302534</v>
       </c>
       <c r="I5" t="n">
-        <v>26.2167098669996</v>
+        <v>26.18225333447186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.71380722760305</v>
+        <v>19.70634436507044</v>
       </c>
       <c r="C6" t="n">
-        <v>27.46789482589664</v>
+        <v>27.49295921426951</v>
       </c>
       <c r="D6" t="n">
-        <v>27.36695765480389</v>
+        <v>27.40561185995914</v>
       </c>
       <c r="E6" t="n">
-        <v>27.67067513228917</v>
+        <v>27.67449516997501</v>
       </c>
       <c r="F6" t="n">
-        <v>27.36695765480389</v>
+        <v>27.40563040281192</v>
       </c>
       <c r="G6" t="n">
-        <v>20.56484977561892</v>
+        <v>24.37236863866656</v>
       </c>
       <c r="H6" t="n">
-        <v>27.10969116205595</v>
+        <v>27.14092747501897</v>
       </c>
       <c r="I6" t="n">
-        <v>26.20442299912017</v>
+        <v>26.2167098669996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6990256308485</v>
+        <v>19.71380722760305</v>
       </c>
       <c r="C7" t="n">
-        <v>27.49337033682035</v>
+        <v>27.46789482589664</v>
       </c>
       <c r="D7" t="n">
-        <v>27.38950961999228</v>
+        <v>27.36695765480389</v>
       </c>
       <c r="E7" t="n">
-        <v>27.67573179175326</v>
+        <v>27.67067513228917</v>
       </c>
       <c r="F7" t="n">
-        <v>27.38950961999228</v>
+        <v>27.36695765480389</v>
       </c>
       <c r="G7" t="n">
-        <v>20.55591570378995</v>
+        <v>24.36958217883668</v>
       </c>
       <c r="H7" t="n">
-        <v>27.14155728141581</v>
+        <v>27.10969116205595</v>
       </c>
       <c r="I7" t="n">
-        <v>26.22356746897985</v>
+        <v>26.20442299912017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.69283585213583</v>
+        <v>19.6990256308485</v>
       </c>
       <c r="C8" t="n">
-        <v>27.46446014523199</v>
+        <v>27.49337033682035</v>
       </c>
       <c r="D8" t="n">
-        <v>27.38127805649862</v>
+        <v>27.38950961999228</v>
       </c>
       <c r="E8" t="n">
-        <v>27.65793004755393</v>
+        <v>27.67573179175326</v>
       </c>
       <c r="F8" t="n">
-        <v>27.38127805649862</v>
+        <v>27.38950961999228</v>
       </c>
       <c r="G8" t="n">
-        <v>20.5392146300378</v>
+        <v>24.3532658765298</v>
       </c>
       <c r="H8" t="n">
-        <v>27.11998882156776</v>
+        <v>27.14155728141581</v>
       </c>
       <c r="I8" t="n">
-        <v>26.1928468316871</v>
+        <v>26.22356746897985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7109287530526</v>
+        <v>19.69283585213583</v>
       </c>
       <c r="C9" t="n">
-        <v>27.50803063442037</v>
+        <v>27.46446014523199</v>
       </c>
       <c r="D9" t="n">
-        <v>27.42505192433551</v>
+        <v>27.38127805649862</v>
       </c>
       <c r="E9" t="n">
-        <v>27.698970927237</v>
+        <v>27.65793004755393</v>
       </c>
       <c r="F9" t="n">
-        <v>27.42505192433551</v>
+        <v>27.38127805649862</v>
       </c>
       <c r="G9" t="n">
-        <v>20.57005656276095</v>
+        <v>24.33115688719708</v>
       </c>
       <c r="H9" t="n">
-        <v>27.14285905819212</v>
+        <v>27.11998882156776</v>
       </c>
       <c r="I9" t="n">
-        <v>26.25546953465573</v>
+        <v>26.1928468316871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.70808572588459</v>
+        <v>19.7109287530526</v>
       </c>
       <c r="C10" t="n">
-        <v>27.52644629339807</v>
+        <v>27.50803063442037</v>
       </c>
       <c r="D10" t="n">
-        <v>27.39334309670581</v>
+        <v>27.42505192433551</v>
       </c>
       <c r="E10" t="n">
-        <v>27.71335044607557</v>
+        <v>27.698970927237</v>
       </c>
       <c r="F10" t="n">
-        <v>27.39334309670581</v>
+        <v>27.42505192433551</v>
       </c>
       <c r="G10" t="n">
-        <v>20.56820876132305</v>
+        <v>24.35988171378161</v>
       </c>
       <c r="H10" t="n">
-        <v>27.1488540439452</v>
+        <v>27.14285905819212</v>
       </c>
       <c r="I10" t="n">
-        <v>26.21807626212293</v>
+        <v>26.25546953465573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.70808572588459</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.52644629339807</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.39334309670581</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.71335044607557</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.39334309670581</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.3342011209011</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27.1488540439452</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26.21807626212293</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.69632878342746</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>27.4787274853283</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>27.38438944864539</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>27.66229372209517</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>27.38438944864539</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.54654705244602</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>24.3365752913931</v>
+      </c>
+      <c r="H12" t="n">
         <v>27.13944556714049</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>26.23359344185387</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.70397176739019</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27.48616490074771</v>
-      </c>
-      <c r="D12" t="n">
-        <v>27.38745437549017</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.67630290582187</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27.38745622977545</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.55961600904269</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27.12942862119696</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26.21689645771588</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.782193133357513</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.683482608099979</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.972331138431677</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7.683484462385255</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8556442416524987</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.425456853806764</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.51292469032569</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6172349716123778</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8881754573773869</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8882975877271155</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8865404517389778</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8882975877271155</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7896209460041398</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8724624052151808</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8437427549429719</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6171687962995701</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8881728618390593</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8888645742484297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8879804924026589</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8888645742484297</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7925099595131943</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8736721052586343</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8458815571087265</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6165098703847242</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8870840922615819</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8846489842393658</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8880780910382511</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8846489842393658</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7909149916674729</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8726339026717872</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8451189751259062</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6169627396478554</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8874404866843896</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8864744549030845</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8886316472230543</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8864720843268042</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7929138441077553</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8736191397642414</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8437536726619043</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6174904934498098</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8893231881628171</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8886455647233833</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8899273365931103</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8886455647233833</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7941639617481719</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8721792212245023</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8462013234089455</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6164128738486753</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8882609216933738</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8882788703103983</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8867486217122246</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8882788703103983</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7939112325384188</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8721616852781945</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8439663180716424</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.616201162550268</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8871516811548242</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8862928765789743</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8867969917978669</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8862928765789743</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7925622836770643</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8725662766986882</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8461496163673183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6173295863757079</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8890079970439666</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8896835736151368</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8882120679686224</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8896835736151368</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7918963618133723</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8745325785599544</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8437364876274883</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6165285103201962</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8895976820178109</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8889537431593759</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8884579491758349</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8889537431593759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7906086521907463</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8736614621419196</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8452685050912072</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6165941426132358</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8876824256052546</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8880003093677247</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8866198738928286</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8880003093677247</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7911493181872038</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8746288236145898</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8441756111227052</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.71210866387949</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24.1636838624671</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.1634494909604</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24.08441163221602</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.1634494909604</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.03610013744015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22.85673989991717</v>
-      </c>
-      <c r="I2" t="n">
-        <v>21.96833622003978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.71457888402703</v>
+        <v>14.71210866387949</v>
       </c>
       <c r="C3" t="n">
-        <v>24.12706939309386</v>
+        <v>24.1636838624671</v>
       </c>
       <c r="D3" t="n">
-        <v>24.14170324449115</v>
+        <v>24.1634494909604</v>
       </c>
       <c r="E3" t="n">
-        <v>24.02285740467389</v>
+        <v>24.08441163221602</v>
       </c>
       <c r="F3" t="n">
-        <v>24.14170324449115</v>
+        <v>24.1634494909604</v>
       </c>
       <c r="G3" t="n">
-        <v>17.02627979464371</v>
+        <v>20.35801652569624</v>
       </c>
       <c r="H3" t="n">
-        <v>22.80292029071429</v>
+        <v>22.85673989991717</v>
       </c>
       <c r="I3" t="n">
-        <v>21.9413231756773</v>
+        <v>21.96833622003978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.69337827589535</v>
+        <v>14.71457888402703</v>
       </c>
       <c r="C4" t="n">
-        <v>24.11927448577857</v>
+        <v>24.12706939309386</v>
       </c>
       <c r="D4" t="n">
-        <v>24.10838966900494</v>
+        <v>24.14170324449115</v>
       </c>
       <c r="E4" t="n">
-        <v>24.00466786859892</v>
+        <v>24.02285740467389</v>
       </c>
       <c r="F4" t="n">
-        <v>24.10838966900494</v>
+        <v>24.14170324449115</v>
       </c>
       <c r="G4" t="n">
-        <v>16.99983650487382</v>
+        <v>20.33047493971311</v>
       </c>
       <c r="H4" t="n">
-        <v>22.78669765343427</v>
+        <v>22.80292029071429</v>
       </c>
       <c r="I4" t="n">
-        <v>21.91559816037352</v>
+        <v>21.9413231756773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.70796967197167</v>
+        <v>14.69337827589535</v>
       </c>
       <c r="C5" t="n">
-        <v>24.12486568292263</v>
+        <v>24.11927448577857</v>
       </c>
       <c r="D5" t="n">
-        <v>24.10370498440935</v>
+        <v>24.10838966900494</v>
       </c>
       <c r="E5" t="n">
-        <v>24.04233020695779</v>
+        <v>24.00466786859892</v>
       </c>
       <c r="F5" t="n">
-        <v>24.10370498440935</v>
+        <v>24.10838966900494</v>
       </c>
       <c r="G5" t="n">
-        <v>17.02566202338924</v>
+        <v>20.310519135291</v>
       </c>
       <c r="H5" t="n">
-        <v>22.82267012730443</v>
+        <v>22.78669765343427</v>
       </c>
       <c r="I5" t="n">
-        <v>21.93291185249863</v>
+        <v>21.91559816037352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.70728687960158</v>
+        <v>14.70796967197167</v>
       </c>
       <c r="C6" t="n">
-        <v>24.16920860901573</v>
+        <v>24.12486568292263</v>
       </c>
       <c r="D6" t="n">
-        <v>24.15383274429925</v>
+        <v>24.10370498440935</v>
       </c>
       <c r="E6" t="n">
-        <v>24.07135714375602</v>
+        <v>24.04233020695779</v>
       </c>
       <c r="F6" t="n">
-        <v>24.15383274429925</v>
+        <v>24.10370498440935</v>
       </c>
       <c r="G6" t="n">
-        <v>17.02670565492553</v>
+        <v>20.33312078022135</v>
       </c>
       <c r="H6" t="n">
-        <v>22.84514864959789</v>
+        <v>22.82267012730443</v>
       </c>
       <c r="I6" t="n">
-        <v>21.95897951101468</v>
+        <v>21.93291185249863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.68214970443914</v>
+        <v>14.70728687960158</v>
       </c>
       <c r="C7" t="n">
-        <v>24.16469163960197</v>
+        <v>24.16920860901573</v>
       </c>
       <c r="D7" t="n">
-        <v>24.1639856209392</v>
+        <v>24.15383274429925</v>
       </c>
       <c r="E7" t="n">
-        <v>24.07539492503382</v>
+        <v>24.07135714375602</v>
       </c>
       <c r="F7" t="n">
-        <v>24.1640035422297</v>
+        <v>24.15383274429925</v>
       </c>
       <c r="G7" t="n">
-        <v>16.99468918901363</v>
+        <v>20.32986483176356</v>
       </c>
       <c r="H7" t="n">
-        <v>22.85584582650917</v>
+        <v>22.84514864959789</v>
       </c>
       <c r="I7" t="n">
-        <v>21.97479669096314</v>
+        <v>21.95897951101468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.69367101778813</v>
+        <v>14.68214970443914</v>
       </c>
       <c r="C8" t="n">
-        <v>24.11466058920701</v>
+        <v>24.16469163960197</v>
       </c>
       <c r="D8" t="n">
-        <v>24.09109011334734</v>
+        <v>24.1639856209392</v>
       </c>
       <c r="E8" t="n">
-        <v>24.0278855960086</v>
+        <v>24.07539492503382</v>
       </c>
       <c r="F8" t="n">
-        <v>24.09109011334734</v>
+        <v>24.1640035422297</v>
       </c>
       <c r="G8" t="n">
-        <v>16.99741474185352</v>
+        <v>20.34275039578961</v>
       </c>
       <c r="H8" t="n">
-        <v>22.81512895830863</v>
+        <v>22.85584582650917</v>
       </c>
       <c r="I8" t="n">
-        <v>21.93044355836742</v>
+        <v>21.97479669096314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.69523298733144</v>
+        <v>14.69367101778813</v>
       </c>
       <c r="C9" t="n">
-        <v>24.14885352578371</v>
+        <v>24.11466058920701</v>
       </c>
       <c r="D9" t="n">
-        <v>24.17120497931143</v>
+        <v>24.09109011334734</v>
       </c>
       <c r="E9" t="n">
-        <v>24.06357860043958</v>
+        <v>24.0278855960086</v>
       </c>
       <c r="F9" t="n">
-        <v>24.17120497931143</v>
+        <v>24.09109011334734</v>
       </c>
       <c r="G9" t="n">
-        <v>17.00986733888064</v>
+        <v>20.31052326869757</v>
       </c>
       <c r="H9" t="n">
-        <v>22.88361392675698</v>
+        <v>22.81512895830863</v>
       </c>
       <c r="I9" t="n">
-        <v>21.99782697217773</v>
+        <v>21.93044355836742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.68916523002296</v>
+        <v>14.69523298733144</v>
       </c>
       <c r="C10" t="n">
-        <v>24.16600784726765</v>
+        <v>24.14885352578371</v>
       </c>
       <c r="D10" t="n">
-        <v>24.14045958644983</v>
+        <v>24.17120497931143</v>
       </c>
       <c r="E10" t="n">
-        <v>24.04238127265899</v>
+        <v>24.06357860043958</v>
       </c>
       <c r="F10" t="n">
-        <v>24.14045958644983</v>
+        <v>24.17120497931143</v>
       </c>
       <c r="G10" t="n">
-        <v>16.99442553273716</v>
+        <v>20.3415202268972</v>
       </c>
       <c r="H10" t="n">
-        <v>22.8043320559091</v>
+        <v>22.88361392675698</v>
       </c>
       <c r="I10" t="n">
-        <v>21.90533832993787</v>
+        <v>21.99782697217773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.68916523002296</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.16600784726765</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.14045958644983</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24.04238127265899</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.14045958644983</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20.29600275944771</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.8043320559091</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.90533832993787</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.69387074554603</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>24.12818513884556</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>24.14284448500568</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>24.04296967447064</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>24.14284448500568</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.0027983888787</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>20.32416331321379</v>
+      </c>
+      <c r="H12" t="n">
         <v>22.81169227272106</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>21.9380640403334</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.69894120605028</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24.14265007739838</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24.13806649182186</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24.04778343248143</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.13806828395091</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.01137793066361</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22.8284789661173</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21.94636185113835</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.443708871348097</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.439125285771578</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.348842226431145</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.439127077900626</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.312436724613327</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.129537760067016</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.247420645088063</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3870598165361636</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7962352421696343</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7917084156265756</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.789260595827862</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7917084156265756</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6205408716086306</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7417679711785248</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6999140520374394</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3865151666061162</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7922186587154793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7892154348456533</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7883901398336448</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7892154348456533</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6220880986569425</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7397261421038837</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6986497617329079</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3858773428955667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7950786841748136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7929525320819968</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7870019311394089</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7929525320819968</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6202335163573403</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7384293338147918</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6966223025278556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3862092075079289</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7911487659294585</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7937348681615974</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.786767394175189</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7937348681615974</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6202953609360577</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7389949993821251</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6978657208388579</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3869553769823437</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7926785348274354</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7900858037871596</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7882787789060418</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7900858037871596</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6213630386249624</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7408025158718057</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6978248134278476</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3857590420440879</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7938829571704316</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7905167139169406</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7908449192869789</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7905177184763147</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6221558452696803</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7415755081881359</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7016204144048807</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3863452026807833</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7945271498031246</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7942365903477006</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7881567872519537</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7942365903477006</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6225459936859741</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7386579695587968</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6990760837202599</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3860461581522187</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7931680191040564</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7851222010330883</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7890987506591197</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7851222010330883</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6219697135509833</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7431879335066842</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6995210735949544</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3864782965967076</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7951250159618274</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7971079271646032</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7889308705020208</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7971079271646032</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6210299221307615</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7410621736571068</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6970690069632249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3859401607861411</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7931503370457077</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7882793282390643</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7899887412449228</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7882793282390643</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6189550156418774</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7404193432406424</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6979040381158348</v>
       </c>
     </row>
   </sheetData>
